--- a/documentos/backlog.xlsx
+++ b/documentos/backlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paulo\Documents\SPTECH02\202501\projetoIndividual\documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{709D0925-6DC5-4778-98F4-B68BB011CE14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C50CE2D5-A811-4999-9750-5845566FC259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="60">
   <si>
     <t>Paulo Junior</t>
   </si>
@@ -143,30 +143,6 @@
     <t>Configuração do banco de dados MySQL Server no servidor Linux Lubuntu</t>
   </si>
   <si>
-    <t>SPRINT 1</t>
-  </si>
-  <si>
-    <t>SPRINT 2</t>
-  </si>
-  <si>
-    <t>PROJEÇÃO SPRINT 1</t>
-  </si>
-  <si>
-    <t>PROJEÇÃO SPRINT 2</t>
-  </si>
-  <si>
-    <t>FIBONACCI</t>
-  </si>
-  <si>
-    <t>DATA</t>
-  </si>
-  <si>
-    <t>PROJEÇÃO</t>
-  </si>
-  <si>
-    <t>EFETIVO</t>
-  </si>
-  <si>
     <t>P</t>
   </si>
   <si>
@@ -242,6 +218,33 @@
   </si>
   <si>
     <t>Sprint 3</t>
+  </si>
+  <si>
+    <t>Implementação da IA Gemini</t>
+  </si>
+  <si>
+    <t>Desenvolvimento da IA Gemini para interação com o usuário</t>
+  </si>
+  <si>
+    <t>Documento ONU - ODS para justificar o projeto</t>
+  </si>
+  <si>
+    <t>Slide para apresentação do projeto</t>
+  </si>
+  <si>
+    <t>Implementação da IA Gemini para futuro desenvolvimento da interação com o usuário</t>
+  </si>
+  <si>
+    <t>Desenvolver a IA Gemini para a regra de negócio gerando uma interação com o usuário</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Documento para dar relevância ao projeto de acordo com </t>
+  </si>
+  <si>
+    <t>Desenvolver os slides no canva para a apresentação do projeto</t>
+  </si>
+  <si>
+    <t>DESEJÁVEL</t>
   </si>
 </sst>
 </file>
@@ -335,7 +338,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -375,19 +378,6 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
       <right/>
       <top style="thin">
         <color rgb="FF000000"/>
@@ -415,11 +405,8 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -432,70 +419,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -612,9 +578,6 @@
               <c:f>'Product Backlog'!$G$31</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>PROJEÇÃO</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -634,29 +597,8 @@
             <c:numRef>
               <c:f>'Product Backlog'!$H$30:$O$30</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>45691</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>45698</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>45705</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>45712</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>45719</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>45726</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>45733</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -666,27 +608,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>116</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -705,9 +626,6 @@
               <c:f>'Product Backlog'!$G$32</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>EFETIVO</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -727,29 +645,8 @@
             <c:numRef>
               <c:f>'Product Backlog'!$H$30:$O$30</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>45691</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>45698</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>45705</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>45712</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>45719</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>45726</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>45733</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -759,27 +656,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -802,14 +678,14 @@
         <c:axId val="1621337607"/>
         <c:axId val="1621339655"/>
       </c:lineChart>
-      <c:dateAx>
+      <c:catAx>
         <c:axId val="1621337607"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -849,9 +725,10 @@
         <c:crossAx val="1621339655"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="days"/>
-      </c:dateAx>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
       <c:valAx>
         <c:axId val="1621339655"/>
         <c:scaling>
@@ -1067,9 +944,6 @@
               <c:f>'Product Backlog'!$Q$31</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>PROJEÇÃO</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -1089,23 +963,8 @@
             <c:numRef>
               <c:f>'Product Backlog'!$R$30:$V$30</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>45740</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>45747</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>45754</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>45761</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>45768</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1115,21 +974,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>199.25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1148,9 +992,6 @@
               <c:f>'Product Backlog'!$Q$32</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>EFETIVO</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -1170,23 +1011,8 @@
             <c:numRef>
               <c:f>'Product Backlog'!$R$30:$V$30</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>45740</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>45747</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>45754</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>45761</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>45768</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1196,21 +1022,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>199.25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1233,14 +1044,14 @@
         <c:axId val="1878566919"/>
         <c:axId val="1878568967"/>
       </c:lineChart>
-      <c:dateAx>
+      <c:catAx>
         <c:axId val="1878566919"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1280,9 +1091,10 @@
         <c:crossAx val="1878568967"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="days"/>
-      </c:dateAx>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
       <c:valAx>
         <c:axId val="1878568967"/>
         <c:scaling>
@@ -2924,51 +2736,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F96035C-4D26-4E90-B992-9E81E347C3C0}">
-  <dimension ref="B2:V42"/>
+  <dimension ref="B2:Q42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2:U6"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R27" sqref="R27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="5"/>
-    <col min="2" max="2" width="12" style="5" customWidth="1"/>
-    <col min="3" max="3" width="22.6640625" style="5" customWidth="1"/>
-    <col min="4" max="6" width="9.109375" style="5" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" style="5" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="12.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="39.6640625" style="5" customWidth="1"/>
-    <col min="10" max="10" width="11.44140625" style="5" customWidth="1"/>
-    <col min="11" max="11" width="17.44140625" style="5" customWidth="1"/>
-    <col min="12" max="12" width="13.33203125" style="5" customWidth="1"/>
-    <col min="13" max="13" width="10.44140625" style="5" customWidth="1"/>
-    <col min="14" max="14" width="12.109375" style="5" customWidth="1"/>
-    <col min="15" max="15" width="16.44140625" style="5" customWidth="1"/>
-    <col min="16" max="16" width="19" style="5" customWidth="1"/>
-    <col min="17" max="17" width="13.88671875" style="5" customWidth="1"/>
-    <col min="18" max="16384" width="9.109375" style="5"/>
+    <col min="1" max="1" width="9.109375" style="4"/>
+    <col min="2" max="2" width="12" style="4" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" style="4" customWidth="1"/>
+    <col min="4" max="6" width="9.109375" style="4" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" style="4" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" style="4" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="39.6640625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="11.44140625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="17.44140625" style="4" customWidth="1"/>
+    <col min="12" max="12" width="13.33203125" style="4" customWidth="1"/>
+    <col min="13" max="13" width="10.44140625" style="4" customWidth="1"/>
+    <col min="14" max="14" width="12.109375" style="4" customWidth="1"/>
+    <col min="15" max="15" width="16.44140625" style="4" customWidth="1"/>
+    <col min="16" max="16" width="19" style="4" customWidth="1"/>
+    <col min="17" max="17" width="13.88671875" style="4" customWidth="1"/>
+    <col min="18" max="16384" width="9.109375" style="4"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="27"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="13"/>
     </row>
     <row r="3" spans="2:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="17" t="s">
@@ -2978,10 +2790,10 @@
       <c r="D3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
       <c r="I3" s="18"/>
       <c r="J3" s="17" t="s">
         <v>4</v>
@@ -2991,769 +2803,793 @@
         <v>5</v>
       </c>
       <c r="M3" s="16"/>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="O3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="P3" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q3" s="4" t="s">
+      <c r="P3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q3" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="2:17" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="19" t="s">
+      <c r="C4" s="10"/>
+      <c r="D4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="20"/>
-      <c r="L4" s="22" t="s">
+      <c r="K4" s="10"/>
+      <c r="L4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="M4" s="23"/>
-      <c r="N4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="O4" s="2">
+      <c r="M4" s="8"/>
+      <c r="N4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4" s="1">
         <v>5</v>
       </c>
-      <c r="P4" s="2">
+      <c r="P4" s="1">
         <v>1</v>
       </c>
-      <c r="Q4" s="2" t="s">
+      <c r="Q4" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="2:17" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="19" t="s">
+      <c r="C5" s="10"/>
+      <c r="D5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="19" t="s">
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="20"/>
-      <c r="L5" s="22" t="s">
+      <c r="K5" s="10"/>
+      <c r="L5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="M5" s="23"/>
-      <c r="N5" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="O5" s="2">
+      <c r="M5" s="8"/>
+      <c r="N5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O5" s="1">
         <v>21</v>
       </c>
-      <c r="P5" s="2">
+      <c r="P5" s="1">
         <v>1</v>
       </c>
-      <c r="Q5" s="2" t="s">
+      <c r="Q5" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="2:17" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="19" t="s">
+      <c r="C6" s="10"/>
+      <c r="D6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="19" t="s">
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="20"/>
-      <c r="L6" s="22" t="s">
+      <c r="K6" s="10"/>
+      <c r="L6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="23"/>
-      <c r="N6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="O6" s="2">
+      <c r="M6" s="8"/>
+      <c r="N6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O6" s="1">
         <v>13</v>
       </c>
-      <c r="P6" s="2">
+      <c r="P6" s="1">
         <v>2</v>
       </c>
-      <c r="Q6" s="2" t="s">
+      <c r="Q6" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="2:17" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="19" t="s">
+      <c r="C7" s="10"/>
+      <c r="D7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="19" t="s">
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="20"/>
-      <c r="L7" s="22" t="s">
+      <c r="K7" s="10"/>
+      <c r="L7" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="M7" s="23"/>
-      <c r="N7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="O7" s="2">
+      <c r="M7" s="8"/>
+      <c r="N7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O7" s="1">
         <v>8</v>
       </c>
-      <c r="P7" s="2">
+      <c r="P7" s="1">
         <v>3</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>57</v>
+      <c r="Q7" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="2:17" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="19" t="s">
+      <c r="B8" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="K8" s="20"/>
-      <c r="L8" s="22" t="s">
+      <c r="K8" s="10"/>
+      <c r="L8" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="M8" s="23"/>
-      <c r="N8" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="O8" s="2">
+      <c r="M8" s="8"/>
+      <c r="N8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O8" s="1">
         <v>21</v>
       </c>
-      <c r="P8" s="2">
+      <c r="P8" s="1">
         <v>1</v>
       </c>
-      <c r="Q8" s="2" t="s">
-        <v>58</v>
+      <c r="Q8" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="2:17" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="19" t="s">
+      <c r="C9" s="10"/>
+      <c r="D9" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="19" t="s">
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="K9" s="20"/>
-      <c r="L9" s="22" t="s">
+      <c r="K9" s="10"/>
+      <c r="L9" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="M9" s="23"/>
-      <c r="N9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="O9" s="2">
+      <c r="M9" s="8"/>
+      <c r="N9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O9" s="1">
         <v>8</v>
       </c>
-      <c r="P9" s="2">
+      <c r="P9" s="1">
         <v>2</v>
       </c>
-      <c r="Q9" s="2" t="s">
-        <v>57</v>
+      <c r="Q9" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="2:17" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="19" t="s">
+      <c r="C10" s="10"/>
+      <c r="D10" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="19" t="s">
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="K10" s="20"/>
-      <c r="L10" s="22" t="s">
+      <c r="K10" s="10"/>
+      <c r="L10" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="M10" s="23"/>
-      <c r="N10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="O10" s="2">
+      <c r="M10" s="8"/>
+      <c r="N10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O10" s="1">
         <v>8</v>
       </c>
-      <c r="P10" s="2">
+      <c r="P10" s="1">
         <v>3</v>
       </c>
-      <c r="Q10" s="2" t="s">
-        <v>57</v>
+      <c r="Q10" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="2:17" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="19" t="s">
+      <c r="B11" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="19" t="s">
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="20"/>
-      <c r="L11" s="22" t="s">
+      <c r="K11" s="10"/>
+      <c r="L11" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="M11" s="23"/>
-      <c r="N11" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="O11" s="2">
+      <c r="M11" s="8"/>
+      <c r="N11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O11" s="1">
         <v>13</v>
       </c>
-      <c r="P11" s="2">
+      <c r="P11" s="1">
         <v>1</v>
       </c>
-      <c r="Q11" s="2" t="s">
-        <v>57</v>
+      <c r="Q11" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="2:17" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="19" t="s">
+      <c r="B12" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="K12" s="20"/>
-      <c r="L12" s="22" t="s">
+      <c r="K12" s="10"/>
+      <c r="L12" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="M12" s="23"/>
-      <c r="N12" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="O12" s="2">
+      <c r="M12" s="8"/>
+      <c r="N12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O12" s="1">
         <v>13</v>
       </c>
-      <c r="P12" s="2">
+      <c r="P12" s="1">
         <v>1</v>
       </c>
-      <c r="Q12" s="2" t="s">
-        <v>57</v>
+      <c r="Q12" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="2:17" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="19" t="s">
+      <c r="B13" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="K13" s="20"/>
-      <c r="L13" s="22" t="s">
+      <c r="K13" s="10"/>
+      <c r="L13" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="M13" s="23"/>
-      <c r="N13" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="O13" s="2">
+      <c r="M13" s="8"/>
+      <c r="N13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O13" s="1">
         <v>13</v>
       </c>
-      <c r="P13" s="2">
+      <c r="P13" s="1">
         <v>1</v>
       </c>
-      <c r="Q13" s="2" t="s">
-        <v>57</v>
+      <c r="Q13" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="2:17" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="19" t="s">
+      <c r="B14" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K14" s="10"/>
+      <c r="L14" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="M14" s="8"/>
+      <c r="N14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O14" s="1">
+        <v>13</v>
+      </c>
+      <c r="P14" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="K14" s="20"/>
-      <c r="L14" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="M14" s="23"/>
-      <c r="N14" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="O14" s="2">
-        <v>13</v>
-      </c>
-      <c r="P14" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="15" spans="2:17" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="19" t="s">
+      <c r="B15" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="K15" s="20"/>
-      <c r="L15" s="22" t="s">
+      <c r="K15" s="10"/>
+      <c r="L15" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="M15" s="23"/>
-      <c r="N15" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="O15" s="2">
+      <c r="M15" s="8"/>
+      <c r="N15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O15" s="1">
         <v>21</v>
       </c>
-      <c r="P15" s="2">
+      <c r="P15" s="1">
         <v>1</v>
       </c>
-      <c r="Q15" s="2" t="s">
-        <v>57</v>
+      <c r="Q15" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="2:17" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="K16" s="10"/>
+      <c r="L16" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="M16" s="8"/>
+      <c r="N16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O16" s="1">
+        <v>8</v>
+      </c>
+      <c r="P16" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="K17" s="10"/>
+      <c r="L17" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="M17" s="8"/>
+      <c r="N17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O17" s="1">
+        <v>8</v>
+      </c>
+      <c r="P17" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K18" s="10"/>
+      <c r="L18" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="M18" s="8"/>
+      <c r="N18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O18" s="1">
+        <v>13</v>
+      </c>
+      <c r="P18" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="K19" s="10"/>
+      <c r="L19" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="M19" s="8"/>
+      <c r="N19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O19" s="1">
+        <v>13</v>
+      </c>
+      <c r="P19" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="19" t="s">
+      <c r="C20" s="10"/>
+      <c r="D20" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="K20" s="10"/>
+      <c r="L20" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="M20" s="8"/>
+      <c r="N20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O20" s="1">
+        <v>21</v>
+      </c>
+      <c r="P20" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="K16" s="20"/>
-      <c r="L16" s="22" t="s">
+      <c r="C21" s="10"/>
+      <c r="D21" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="K21" s="10"/>
+      <c r="L21" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="M16" s="23"/>
-      <c r="N16" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="O16" s="2">
+      <c r="M21" s="8"/>
+      <c r="N21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O21" s="1">
+        <v>21</v>
+      </c>
+      <c r="P21" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K22" s="10"/>
+      <c r="L22" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="M22" s="8"/>
+      <c r="N22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O22" s="1">
         <v>8</v>
       </c>
-      <c r="P16" s="2">
-        <v>2</v>
-      </c>
-      <c r="Q16" s="2" t="s">
-        <v>57</v>
+      <c r="P22" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
-    <row r="17" spans="2:22" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="K17" s="20"/>
-      <c r="L17" s="22" t="s">
+    <row r="23" spans="2:17" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="10"/>
+      <c r="D23" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="K23" s="10"/>
+      <c r="L23" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="M17" s="23"/>
-      <c r="N17" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="O17" s="2">
-        <v>8</v>
-      </c>
-      <c r="P17" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="2" t="s">
-        <v>58</v>
+      <c r="M23" s="8"/>
+      <c r="N23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O23" s="1">
+        <v>5</v>
+      </c>
+      <c r="P23" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
-    <row r="18" spans="2:22" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="20"/>
-      <c r="D18" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="K18" s="20"/>
-      <c r="L18" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="M18" s="23"/>
-      <c r="N18" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="O18" s="2">
-        <v>13</v>
-      </c>
-      <c r="P18" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="2:22" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="K19" s="20"/>
-      <c r="L19" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="M19" s="23"/>
-      <c r="N19" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="O19" s="2">
-        <v>13</v>
-      </c>
-      <c r="P19" s="2">
-        <v>2</v>
-      </c>
-      <c r="Q19" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="2:22" ht="63.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="2:22" ht="63.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:22" ht="63.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="2:22" ht="63.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="2:22" ht="63.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="2:22" ht="63.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="2:22" ht="63.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="2:22" ht="63.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="2:22" ht="63.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="2:22" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C29" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="E29" s="12"/>
-      <c r="G29" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="14"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="14"/>
-      <c r="N29" s="14"/>
-      <c r="O29" s="12"/>
-      <c r="Q29" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="R29" s="14"/>
-      <c r="S29" s="14"/>
-      <c r="T29" s="14"/>
-      <c r="U29" s="14"/>
-      <c r="V29" s="12"/>
-    </row>
-    <row r="30" spans="2:22" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C30" s="12">
-        <f>SUM(O4:O18)/4</f>
-        <v>46.5</v>
-      </c>
-      <c r="D30" s="13">
-        <f>SUM(O19:O20)/4</f>
-        <v>3.25</v>
-      </c>
-      <c r="E30" s="12"/>
-      <c r="G30" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H30" s="10">
-        <v>45684</v>
-      </c>
-      <c r="I30" s="10">
-        <v>45691</v>
-      </c>
-      <c r="J30" s="10">
-        <v>45698</v>
-      </c>
-      <c r="K30" s="10">
-        <v>45705</v>
-      </c>
-      <c r="L30" s="10">
-        <v>45712</v>
-      </c>
-      <c r="M30" s="10">
-        <v>45719</v>
-      </c>
-      <c r="N30" s="10">
-        <v>45726</v>
-      </c>
-      <c r="O30" s="10">
-        <v>45733</v>
-      </c>
-      <c r="Q30" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="R30" s="7">
-        <v>45740</v>
-      </c>
-      <c r="S30" s="7">
-        <v>45747</v>
-      </c>
-      <c r="T30" s="7">
-        <v>45754</v>
-      </c>
-      <c r="U30" s="7">
-        <v>45761</v>
-      </c>
-      <c r="V30" s="7">
-        <v>45768</v>
-      </c>
-    </row>
-    <row r="31" spans="2:22" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G31" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H31" s="6">
-        <v>232.5</v>
-      </c>
-      <c r="I31" s="6">
-        <v>116</v>
-      </c>
-      <c r="J31" s="6">
-        <v>58</v>
-      </c>
-      <c r="K31" s="6">
-        <v>29</v>
-      </c>
-      <c r="L31" s="6">
-        <v>14</v>
-      </c>
-      <c r="M31" s="6">
-        <v>7</v>
-      </c>
-      <c r="N31" s="6">
-        <v>3</v>
-      </c>
-      <c r="O31" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q31" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="R31" s="1">
-        <v>199.25</v>
-      </c>
-      <c r="S31" s="1">
-        <v>80</v>
-      </c>
-      <c r="T31" s="1">
-        <v>20</v>
-      </c>
-      <c r="U31" s="1">
-        <v>5</v>
-      </c>
-      <c r="V31" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="2:22" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G32" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H32" s="1">
-        <v>232.5</v>
-      </c>
-      <c r="I32" s="1">
-        <v>110</v>
-      </c>
-      <c r="J32" s="1">
-        <v>55</v>
-      </c>
-      <c r="K32" s="1">
-        <v>20</v>
-      </c>
-      <c r="L32" s="1">
-        <v>8</v>
-      </c>
-      <c r="M32" s="1">
-        <v>5</v>
-      </c>
-      <c r="N32" s="1">
-        <v>2</v>
-      </c>
-      <c r="O32" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q32" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="R32" s="1">
-        <v>199.25</v>
-      </c>
-      <c r="S32" s="1">
-        <v>110</v>
-      </c>
-      <c r="T32" s="1">
-        <v>20</v>
-      </c>
-      <c r="U32" s="1">
-        <v>4</v>
-      </c>
-      <c r="V32" s="1">
-        <v>0</v>
-      </c>
-    </row>
+    <row r="24" spans="2:17" ht="63.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="2:17" ht="63.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="2:17" ht="63.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="2:17" ht="63.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="2:17" ht="63.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="2:17" ht="63.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="2:17" ht="63.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="2:17" ht="63.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="2:17" ht="63.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="33" spans="13:15" ht="82.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="34" spans="13:15" ht="75.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="13:15" ht="75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="36" spans="13:15" ht="68.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="41" spans="13:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="M41" s="9"/>
-      <c r="N41" s="9"/>
-      <c r="O41" s="9"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="5"/>
+      <c r="O41" s="5"/>
     </row>
     <row r="42" spans="13:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="M42" s="11"/>
-      <c r="N42" s="11"/>
-      <c r="O42" s="11"/>
+      <c r="M42" s="6"/>
+      <c r="N42" s="6"/>
+      <c r="O42" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="69">
+  <mergeCells count="85">
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="D13:I13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:I17"/>
+    <mergeCell ref="D18:I18"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="J14:K14"/>
     <mergeCell ref="L16:M16"/>
     <mergeCell ref="J17:K17"/>
     <mergeCell ref="B2:Q2"/>
@@ -3770,59 +3606,6 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:I17"/>
-    <mergeCell ref="D18:I18"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="D19:I19"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:I11"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="D13:I13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="D3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D4:I4"/>
-    <mergeCell ref="L4:M4"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/documentos/backlog.xlsx
+++ b/documentos/backlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paulo\Documents\SPTECH02\202501\projetoIndividual\documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C50CE2D5-A811-4999-9750-5845566FC259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6502C7C2-3E28-49C6-A3C6-82E6AF8623A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="2" r:id="rId1"/>
@@ -2738,8 +2738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F96035C-4D26-4E90-B992-9E81E347C3C0}">
   <dimension ref="B2:Q42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R27" sqref="R27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
